--- a/results/pvalue_SIDER_rare_enzyme_AUPR.xlsx
+++ b/results/pvalue_SIDER_rare_enzyme_AUPR.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.297</t>
+          <t>0.288</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.417</t>
+          <t>0.479</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.418</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.596</t>
+          <t>0.436</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.198</t>
+          <t>1.226</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.904</t>
+          <t>0.781</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.902</t>
+          <t>-2.498</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.576</t>
+          <t>-0.866</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.003</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>9.821</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8.346</t>
+          <t>8.356</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.083</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.766</t>
+          <t>21.744</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.986</t>
+          <t>6.188</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
